--- a/config_8.10/act_ty_gifts_config.xlsx
+++ b/config_8.10/act_ty_gifts_config.xlsx
@@ -124,9 +124,6 @@
     <t>gift_khlb</t>
   </si>
   <si>
-    <t>act_005_khlb</t>
-  </si>
-  <si>
     <t>13,14,15,16</t>
   </si>
   <si>
@@ -434,6 +431,10 @@
   </si>
   <si>
     <t>爱心礼包</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_006_axlb</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -813,7 +814,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:F10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -953,10 +954,10 @@
         <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E5" s="5">
         <v>1628553600</v>
@@ -968,7 +969,7 @@
         <v>12</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" s="5">
         <v>1</v>
@@ -1085,49 +1086,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1138,40 +1139,40 @@
         <v>9</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1182,40 +1183,40 @@
         <v>9</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="J3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1226,40 +1227,40 @@
         <v>9</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="J4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1270,40 +1271,40 @@
         <v>9</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="J5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1314,40 +1315,40 @@
         <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="O6" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="P6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1358,40 +1359,40 @@
         <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="J7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="O7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="O7" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="P7" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1402,40 +1403,40 @@
         <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="J8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="O8" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="P8" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1446,40 +1447,40 @@
         <v>14</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="J9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="O9" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="P9" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1490,40 +1491,40 @@
         <v>18</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="K10" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="L10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="O10" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="O10" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="P10" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1534,40 +1535,40 @@
         <v>18</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="J11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="L11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="O11" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="O11" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="P11" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1578,40 +1579,40 @@
         <v>18</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="J12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="L12" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="O12" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="O12" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="P12" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1622,40 +1623,40 @@
         <v>18</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="J13" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="L13" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="O13" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="O13" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="P13" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1666,40 +1667,40 @@
         <v>22</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="J14" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="K14" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="L14" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="O14" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="O14" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="P14" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1710,40 +1711,40 @@
         <v>22</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="J15" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="L15" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="O15" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="O15" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="P15" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1754,40 +1755,40 @@
         <v>22</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H16" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="J16" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="O16" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -1798,40 +1799,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I17" s="5" t="s">
+      <c r="J17" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="K17" s="5" t="s">
+      <c r="L17" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="L17" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="O17" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -1869,10 +1870,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
@@ -1880,7 +1881,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
@@ -1888,7 +1889,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
